--- a/src/assets/templates/TechnologiesAdopted.xlsx
+++ b/src/assets/templates/TechnologiesAdopted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\CS673\Project\Code\survey-analysis-frontend\src\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BCD24B-80E9-4F1A-A470-31D8BE91ABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89161D66-0D94-4DBC-B6A5-69E1A5B745C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EBC069C9-EE38-4D21-BE21-C765AA562C35}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Semester</t>
   </si>
@@ -51,48 +51,6 @@
     <t>Course_Number</t>
   </si>
   <si>
-    <t>Listening to the lectures</t>
-  </si>
-  <si>
-    <t>Re-review previous material and recordings</t>
-  </si>
-  <si>
-    <t>Completing assignments</t>
-  </si>
-  <si>
-    <t>Taking quizzes</t>
-  </si>
-  <si>
-    <t>Preparing for and completing the final exam</t>
-  </si>
-  <si>
-    <t>Providing/receiving comments to/from peers</t>
-  </si>
-  <si>
-    <t>Collaborating during the term project</t>
-  </si>
-  <si>
-    <t>Learning Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Least Effective</t>
-  </si>
-  <si>
-    <t>Most Effective</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Learning_Method</t>
-  </si>
-  <si>
-    <t>Results_of_Survey</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -100,6 +58,60 @@
   </si>
   <si>
     <t>202Y</t>
+  </si>
+  <si>
+    <t>Techniques Adopted</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Pivotal</t>
+  </si>
+  <si>
+    <t>Peer Reviews</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Component Diagrams</t>
+  </si>
+  <si>
+    <t>Api Specs</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,13 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,8 +260,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,22 +577,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10F892B-E390-442E-803B-525C297933E6}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.15625" customWidth="1"/>
-    <col min="11" max="11" width="1.20703125" customWidth="1"/>
-    <col min="12" max="12" width="7.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,270 +602,192 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="10">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="2" t="s">
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="10">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="10">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="10">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="E14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="10">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="10">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
-        <f>F3*F4+G3*G4+H3*H4+I3*I4+J3*J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
-        <f>F3*F5+G3*G5+H3*H5+I3*I5+J3*J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="12">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
-        <f>F3*F6+G3*G6+H3*H6+I3*I6+J3*J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <f>F3*F7+G3*G7+H3*H7+I3*I7+J3*J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="12">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
-        <f>F3*F8+G3*G8+H3*H8+I3*I8+J3*J8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="12">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <f>F3*F9+G3*G9+H3*H9+I3*I9+J3*J9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="12">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
-        <f>F3*F10+G3*G10+H3*H10+I3*I10+J3*J10</f>
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
